--- a/Пример отчета.xlsx
+++ b/Пример отчета.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkUFO\Documents\GitHub\Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281C088-2816-4B5D-A91A-491261801EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A8FE32-EDFF-4C81-9F2B-84F026C63A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Формулы" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Формулы" sheetId="2" r:id="rId1"/>
     <sheet name=" Теплица 1" sheetId="1" r:id="rId2"/>
     <sheet name=" Теплица 2" sheetId="3" r:id="rId3"/>
     <sheet name=" Теплица 3" sheetId="4" r:id="rId4"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="307">
   <si>
     <t xml:space="preserve">Таблица регистрации параметров развития растения </t>
   </si>
@@ -1358,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2140,18 +2140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2161,22 +2149,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2230,6 +2202,38 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2551,7 +2555,7 @@
   <dimension ref="A2:AG16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3146,11 +3150,11 @@
   <dimension ref="A1:BE102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="X17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B7" sqref="B7"/>
       <selection pane="topRight" activeCell="B7" sqref="B7"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3194,16 +3198,16 @@
     </row>
     <row r="2" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="218"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="234"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3383,16 +3387,16 @@
     </row>
     <row r="3" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="218"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -3540,16 +3544,16 @@
     </row>
     <row r="4" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="221"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="22">
         <v>1</v>
       </c>
@@ -3697,16 +3701,16 @@
     </row>
     <row r="5" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="222"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="235"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -3854,16 +3858,16 @@
     </row>
     <row r="6" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="225"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -4011,16 +4015,16 @@
     </row>
     <row r="7" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="221"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="218"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -4446,17 +4450,17 @@
       <c r="BE9" s="55"/>
     </row>
     <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="233" t="s">
+      <c r="A10" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -4925,7 +4929,7 @@
         <v>170.2</v>
       </c>
       <c r="Y13" s="13">
-        <f t="shared" si="38"/>
+        <f>IF(Y$2="Среднее",AVERAGE(R13:X13))</f>
         <v>132.48571428571429</v>
       </c>
       <c r="Z13" s="13">
@@ -6346,11 +6350,11 @@
         <v>61</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" ref="J22:P22" si="49">J18*J21</f>
+        <f>J18*J21</f>
         <v>1353</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="J22:P22" si="49">K18*K21</f>
         <v>1353</v>
       </c>
       <c r="L22" s="17">
@@ -6827,17 +6831,17 @@
       </c>
     </row>
     <row r="25" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="234" t="s">
+      <c r="A25" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -8257,7 +8261,7 @@
       </c>
     </row>
     <row r="35" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="236">
+      <c r="A35" s="229">
         <f t="shared" si="83"/>
         <v>10</v>
       </c>
@@ -8403,7 +8407,7 @@
       </c>
     </row>
     <row r="36" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="237"/>
+      <c r="A36" s="230"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -8546,7 +8550,7 @@
       </c>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="238"/>
+      <c r="A37" s="231"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -9324,17 +9328,17 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="226" t="s">
+      <c r="A42" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
-      <c r="H42" s="227"/>
-      <c r="I42" s="227"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -11830,17 +11834,17 @@
       </c>
     </row>
     <row r="59" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="228" t="s">
+      <c r="A59" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229"/>
-      <c r="F59" s="229"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="229"/>
+      <c r="B59" s="222"/>
+      <c r="C59" s="222"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="222"/>
+      <c r="G59" s="222"/>
+      <c r="H59" s="222"/>
+      <c r="I59" s="222"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -15040,17 +15044,17 @@
       </c>
     </row>
     <row r="82" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="230" t="s">
+      <c r="A82" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="230"/>
-      <c r="C82" s="230"/>
-      <c r="D82" s="230"/>
-      <c r="E82" s="230"/>
-      <c r="F82" s="230"/>
-      <c r="G82" s="230"/>
-      <c r="H82" s="230"/>
-      <c r="I82" s="230"/>
+      <c r="B82" s="223"/>
+      <c r="C82" s="223"/>
+      <c r="D82" s="223"/>
+      <c r="E82" s="223"/>
+      <c r="F82" s="223"/>
+      <c r="G82" s="223"/>
+      <c r="H82" s="223"/>
+      <c r="I82" s="223"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -16917,17 +16921,17 @@
       </c>
     </row>
     <row r="95" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="231" t="s">
+      <c r="A95" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="231"/>
-      <c r="C95" s="231"/>
-      <c r="D95" s="231"/>
-      <c r="E95" s="231"/>
-      <c r="F95" s="231"/>
-      <c r="G95" s="232"/>
-      <c r="H95" s="231"/>
-      <c r="I95" s="231"/>
+      <c r="B95" s="224"/>
+      <c r="C95" s="224"/>
+      <c r="D95" s="224"/>
+      <c r="E95" s="224"/>
+      <c r="F95" s="224"/>
+      <c r="G95" s="225"/>
+      <c r="H95" s="224"/>
+      <c r="I95" s="224"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -17001,8 +17005,8 @@
         <v>210</v>
       </c>
       <c r="I96" s="145"/>
-      <c r="J96" s="4" t="s">
-        <v>296</v>
+      <c r="J96" s="239">
+        <v>1</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>296</v>
@@ -17022,9 +17026,9 @@
       <c r="P96" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="Q96" s="12" t="e">
+      <c r="Q96" s="12">
         <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="R96" s="4" t="s">
         <v>296</v>
@@ -17919,6 +17923,11 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
@@ -17927,11 +17936,6 @@
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="32">
@@ -18091,16 +18095,16 @@
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="218"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="234"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -18312,16 +18316,16 @@
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="218"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -18493,16 +18497,16 @@
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="221"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="22">
         <v>2</v>
       </c>
@@ -18674,16 +18678,16 @@
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="222"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="235"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -18855,16 +18859,16 @@
     </row>
     <row r="6" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="225"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -19036,16 +19040,16 @@
     </row>
     <row r="7" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="221"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="218"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -19535,17 +19539,17 @@
       <c r="BM9" s="55"/>
     </row>
     <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="233" t="s">
+      <c r="A10" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -22146,17 +22150,17 @@
       </c>
     </row>
     <row r="25" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="234" t="s">
+      <c r="A25" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -23683,7 +23687,7 @@
       </c>
     </row>
     <row r="35" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="236">
+      <c r="A35" s="229">
         <f t="shared" si="84"/>
         <v>10</v>
       </c>
@@ -23839,7 +23843,7 @@
       </c>
     </row>
     <row r="36" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="237"/>
+      <c r="A36" s="230"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -23992,7 +23996,7 @@
       </c>
     </row>
     <row r="37" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="238"/>
+      <c r="A37" s="231"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -24824,17 +24828,17 @@
       </c>
     </row>
     <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="226" t="s">
+      <c r="A42" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
-      <c r="H42" s="227"/>
-      <c r="I42" s="227"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -27514,17 +27518,17 @@
       </c>
     </row>
     <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="228" t="s">
+      <c r="A59" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229"/>
-      <c r="F59" s="229"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="229"/>
+      <c r="B59" s="222"/>
+      <c r="C59" s="222"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="222"/>
+      <c r="G59" s="222"/>
+      <c r="H59" s="222"/>
+      <c r="I59" s="222"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -30991,17 +30995,17 @@
       </c>
     </row>
     <row r="82" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="230" t="s">
+      <c r="A82" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="230"/>
-      <c r="C82" s="230"/>
-      <c r="D82" s="230"/>
-      <c r="E82" s="230"/>
-      <c r="F82" s="230"/>
-      <c r="G82" s="230"/>
-      <c r="H82" s="230"/>
-      <c r="I82" s="230"/>
+      <c r="B82" s="223"/>
+      <c r="C82" s="223"/>
+      <c r="D82" s="223"/>
+      <c r="E82" s="223"/>
+      <c r="F82" s="223"/>
+      <c r="G82" s="223"/>
+      <c r="H82" s="223"/>
+      <c r="I82" s="223"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -33008,17 +33012,17 @@
       </c>
     </row>
     <row r="95" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="231" t="s">
+      <c r="A95" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="231"/>
-      <c r="C95" s="231"/>
-      <c r="D95" s="231"/>
-      <c r="E95" s="231"/>
-      <c r="F95" s="231"/>
-      <c r="G95" s="232"/>
-      <c r="H95" s="231"/>
-      <c r="I95" s="231"/>
+      <c r="B95" s="224"/>
+      <c r="C95" s="224"/>
+      <c r="D95" s="224"/>
+      <c r="E95" s="224"/>
+      <c r="F95" s="224"/>
+      <c r="G95" s="225"/>
+      <c r="H95" s="224"/>
+      <c r="I95" s="224"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -34089,6 +34093,12 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -34096,12 +34106,6 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="31">
@@ -34258,16 +34262,16 @@
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="218"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="234"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -34479,16 +34483,16 @@
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="218"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -34660,16 +34664,16 @@
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="221"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="22">
         <v>3</v>
       </c>
@@ -34841,16 +34845,16 @@
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="222"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="235"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -35022,16 +35026,16 @@
     </row>
     <row r="6" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="225"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -35203,16 +35207,16 @@
     </row>
     <row r="7" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="221"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="218"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -35702,17 +35706,17 @@
       <c r="BM9" s="55"/>
     </row>
     <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="233" t="s">
+      <c r="A10" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -38313,17 +38317,17 @@
       </c>
     </row>
     <row r="25" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="234" t="s">
+      <c r="A25" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -39850,7 +39854,7 @@
       </c>
     </row>
     <row r="35" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="236">
+      <c r="A35" s="229">
         <f t="shared" si="78"/>
         <v>10</v>
       </c>
@@ -40006,7 +40010,7 @@
       </c>
     </row>
     <row r="36" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="237"/>
+      <c r="A36" s="230"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -40159,7 +40163,7 @@
       </c>
     </row>
     <row r="37" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="238"/>
+      <c r="A37" s="231"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -40991,17 +40995,17 @@
       </c>
     </row>
     <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="226" t="s">
+      <c r="A42" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
-      <c r="H42" s="227"/>
-      <c r="I42" s="227"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -43681,17 +43685,17 @@
       </c>
     </row>
     <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="228" t="s">
+      <c r="A59" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229"/>
-      <c r="F59" s="229"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="229"/>
+      <c r="B59" s="222"/>
+      <c r="C59" s="222"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="222"/>
+      <c r="G59" s="222"/>
+      <c r="H59" s="222"/>
+      <c r="I59" s="222"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -47159,17 +47163,17 @@
       </c>
     </row>
     <row r="82" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="230" t="s">
+      <c r="A82" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="230"/>
-      <c r="C82" s="230"/>
-      <c r="D82" s="230"/>
-      <c r="E82" s="230"/>
-      <c r="F82" s="230"/>
-      <c r="G82" s="230"/>
-      <c r="H82" s="230"/>
-      <c r="I82" s="230"/>
+      <c r="B82" s="223"/>
+      <c r="C82" s="223"/>
+      <c r="D82" s="223"/>
+      <c r="E82" s="223"/>
+      <c r="F82" s="223"/>
+      <c r="G82" s="223"/>
+      <c r="H82" s="223"/>
+      <c r="I82" s="223"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -49176,17 +49180,17 @@
       </c>
     </row>
     <row r="95" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="231" t="s">
+      <c r="A95" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="231"/>
-      <c r="C95" s="231"/>
-      <c r="D95" s="231"/>
-      <c r="E95" s="231"/>
-      <c r="F95" s="231"/>
-      <c r="G95" s="232"/>
-      <c r="H95" s="231"/>
-      <c r="I95" s="231"/>
+      <c r="B95" s="224"/>
+      <c r="C95" s="224"/>
+      <c r="D95" s="224"/>
+      <c r="E95" s="224"/>
+      <c r="F95" s="224"/>
+      <c r="G95" s="225"/>
+      <c r="H95" s="224"/>
+      <c r="I95" s="224"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -50257,6 +50261,12 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -50264,12 +50274,6 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <dataValidations count="31">
     <dataValidation showInputMessage="1" showErrorMessage="1" error="Введите номер блока АКЧ от 1 до 5." sqref="J3:BM3" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
@@ -50422,16 +50426,16 @@
     </row>
     <row r="2" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="218"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="234"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -50611,16 +50615,16 @@
     </row>
     <row r="3" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="218"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -50768,16 +50772,16 @@
     </row>
     <row r="4" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="221"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="22">
         <v>4</v>
       </c>
@@ -50925,16 +50929,16 @@
     </row>
     <row r="5" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="222"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="235"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -51082,16 +51086,16 @@
     </row>
     <row r="6" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="225"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -51239,16 +51243,16 @@
     </row>
     <row r="7" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="221"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="218"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -51674,17 +51678,17 @@
       <c r="BE9" s="55"/>
     </row>
     <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="233" t="s">
+      <c r="A10" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -54068,17 +54072,17 @@
       </c>
     </row>
     <row r="25" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="234" t="s">
+      <c r="A25" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -55498,7 +55502,7 @@
       </c>
     </row>
     <row r="35" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="236">
+      <c r="A35" s="229">
         <f t="shared" si="55"/>
         <v>10</v>
       </c>
@@ -55644,7 +55648,7 @@
       </c>
     </row>
     <row r="36" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="237"/>
+      <c r="A36" s="230"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -55787,7 +55791,7 @@
       </c>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="238"/>
+      <c r="A37" s="231"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -56565,17 +56569,17 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="226" t="s">
+      <c r="A42" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
-      <c r="H42" s="227"/>
-      <c r="I42" s="227"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -59071,17 +59075,17 @@
       </c>
     </row>
     <row r="59" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="228" t="s">
+      <c r="A59" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229"/>
-      <c r="F59" s="229"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="229"/>
+      <c r="B59" s="222"/>
+      <c r="C59" s="222"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="222"/>
+      <c r="G59" s="222"/>
+      <c r="H59" s="222"/>
+      <c r="I59" s="222"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -62260,17 +62264,17 @@
       </c>
     </row>
     <row r="82" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="230" t="s">
+      <c r="A82" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="230"/>
-      <c r="C82" s="230"/>
-      <c r="D82" s="230"/>
-      <c r="E82" s="230"/>
-      <c r="F82" s="230"/>
-      <c r="G82" s="230"/>
-      <c r="H82" s="230"/>
-      <c r="I82" s="230"/>
+      <c r="B82" s="223"/>
+      <c r="C82" s="223"/>
+      <c r="D82" s="223"/>
+      <c r="E82" s="223"/>
+      <c r="F82" s="223"/>
+      <c r="G82" s="223"/>
+      <c r="H82" s="223"/>
+      <c r="I82" s="223"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -64137,17 +64141,17 @@
       </c>
     </row>
     <row r="95" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="231" t="s">
+      <c r="A95" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="231"/>
-      <c r="C95" s="231"/>
-      <c r="D95" s="231"/>
-      <c r="E95" s="231"/>
-      <c r="F95" s="231"/>
-      <c r="G95" s="232"/>
-      <c r="H95" s="231"/>
-      <c r="I95" s="231"/>
+      <c r="B95" s="224"/>
+      <c r="C95" s="224"/>
+      <c r="D95" s="224"/>
+      <c r="E95" s="224"/>
+      <c r="F95" s="224"/>
+      <c r="G95" s="225"/>
+      <c r="H95" s="224"/>
+      <c r="I95" s="224"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -65139,6 +65143,12 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -65146,12 +65156,6 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="30">

--- a/Пример отчета.xlsx
+++ b/Пример отчета.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkUFO\Documents\GitHub\Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A8FE32-EDFF-4C81-9F2B-84F026C63A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E350720-F52A-4843-8CEA-AE50EE70F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2137,8 +2137,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2149,6 +2165,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2202,38 +2234,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2910,7 +2910,7 @@
       <c r="AG14" s="44"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="215">
+      <c r="A15" s="216">
         <v>1</v>
       </c>
       <c r="B15" s="41" t="s">
@@ -3021,7 +3021,7 @@
       <c r="AG15" s="46"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="39" t="s">
         <v>45</v>
       </c>
@@ -3150,11 +3150,11 @@
   <dimension ref="A1:BE102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="X17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="J94" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B7" sqref="B7"/>
       <selection pane="topRight" activeCell="B7" sqref="B7"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:I25"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3198,16 +3198,16 @@
     </row>
     <row r="2" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="234"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="219"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="3" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="218"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="222"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -3544,16 +3544,16 @@
     </row>
     <row r="4" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="222"/>
       <c r="J4" s="22">
         <v>1</v>
       </c>
@@ -3701,16 +3701,16 @@
     </row>
     <row r="5" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="235"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="223"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -3858,16 +3858,16 @@
     </row>
     <row r="6" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="238"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="226"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -4015,16 +4015,16 @@
     </row>
     <row r="7" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="218"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -4450,17 +4450,17 @@
       <c r="BE9" s="55"/>
     </row>
     <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="226"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="226"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -6354,7 +6354,7 @@
         <v>1353</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" ref="J22:P22" si="49">K18*K21</f>
+        <f t="shared" ref="K22:P22" si="49">K18*K21</f>
         <v>1353</v>
       </c>
       <c r="L22" s="17">
@@ -6831,17 +6831,17 @@
       </c>
     </row>
     <row r="25" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="227" t="s">
+      <c r="A25" s="235" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="228"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="236"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -8261,7 +8261,7 @@
       </c>
     </row>
     <row r="35" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="229">
+      <c r="A35" s="237">
         <f t="shared" si="83"/>
         <v>10</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
     </row>
     <row r="36" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="230"/>
+      <c r="A36" s="238"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -8550,7 +8550,7 @@
       </c>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="231"/>
+      <c r="A37" s="239"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -9328,17 +9328,17 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="219" t="s">
+      <c r="A42" s="227" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -11834,17 +11834,17 @@
       </c>
     </row>
     <row r="59" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="221" t="s">
+      <c r="A59" s="229" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="222"/>
-      <c r="C59" s="222"/>
-      <c r="D59" s="222"/>
-      <c r="E59" s="222"/>
-      <c r="F59" s="222"/>
-      <c r="G59" s="222"/>
-      <c r="H59" s="222"/>
-      <c r="I59" s="222"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="230"/>
+      <c r="D59" s="230"/>
+      <c r="E59" s="230"/>
+      <c r="F59" s="230"/>
+      <c r="G59" s="230"/>
+      <c r="H59" s="230"/>
+      <c r="I59" s="230"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -15044,17 +15044,17 @@
       </c>
     </row>
     <row r="82" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="223" t="s">
+      <c r="A82" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="223"/>
-      <c r="C82" s="223"/>
-      <c r="D82" s="223"/>
-      <c r="E82" s="223"/>
-      <c r="F82" s="223"/>
-      <c r="G82" s="223"/>
-      <c r="H82" s="223"/>
-      <c r="I82" s="223"/>
+      <c r="B82" s="231"/>
+      <c r="C82" s="231"/>
+      <c r="D82" s="231"/>
+      <c r="E82" s="231"/>
+      <c r="F82" s="231"/>
+      <c r="G82" s="231"/>
+      <c r="H82" s="231"/>
+      <c r="I82" s="231"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -16921,17 +16921,17 @@
       </c>
     </row>
     <row r="95" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="224" t="s">
+      <c r="A95" s="232" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="224"/>
-      <c r="C95" s="224"/>
-      <c r="D95" s="224"/>
-      <c r="E95" s="224"/>
-      <c r="F95" s="224"/>
-      <c r="G95" s="225"/>
-      <c r="H95" s="224"/>
-      <c r="I95" s="224"/>
+      <c r="B95" s="232"/>
+      <c r="C95" s="232"/>
+      <c r="D95" s="232"/>
+      <c r="E95" s="232"/>
+      <c r="F95" s="232"/>
+      <c r="G95" s="233"/>
+      <c r="H95" s="232"/>
+      <c r="I95" s="232"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -17005,7 +17005,7 @@
         <v>210</v>
       </c>
       <c r="I96" s="145"/>
-      <c r="J96" s="239">
+      <c r="J96" s="215">
         <v>1</v>
       </c>
       <c r="K96" s="4" t="s">
@@ -17923,11 +17923,6 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
@@ -17936,6 +17931,11 @@
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="32">
@@ -18095,16 +18095,16 @@
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="234"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="219"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -18316,16 +18316,16 @@
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="218"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="222"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -18497,16 +18497,16 @@
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="222"/>
       <c r="J4" s="22">
         <v>2</v>
       </c>
@@ -18678,16 +18678,16 @@
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="235"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="223"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -18859,16 +18859,16 @@
     </row>
     <row r="6" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="238"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="226"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -19040,16 +19040,16 @@
     </row>
     <row r="7" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="218"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -19539,17 +19539,17 @@
       <c r="BM9" s="55"/>
     </row>
     <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="226"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="226"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -22150,17 +22150,17 @@
       </c>
     </row>
     <row r="25" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="227" t="s">
+      <c r="A25" s="235" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="228"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="236"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -23687,7 +23687,7 @@
       </c>
     </row>
     <row r="35" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="229">
+      <c r="A35" s="237">
         <f t="shared" si="84"/>
         <v>10</v>
       </c>
@@ -23843,7 +23843,7 @@
       </c>
     </row>
     <row r="36" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="230"/>
+      <c r="A36" s="238"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -23996,7 +23996,7 @@
       </c>
     </row>
     <row r="37" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="231"/>
+      <c r="A37" s="239"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -24828,17 +24828,17 @@
       </c>
     </row>
     <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="219" t="s">
+      <c r="A42" s="227" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -27518,17 +27518,17 @@
       </c>
     </row>
     <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="221" t="s">
+      <c r="A59" s="229" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="222"/>
-      <c r="C59" s="222"/>
-      <c r="D59" s="222"/>
-      <c r="E59" s="222"/>
-      <c r="F59" s="222"/>
-      <c r="G59" s="222"/>
-      <c r="H59" s="222"/>
-      <c r="I59" s="222"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="230"/>
+      <c r="D59" s="230"/>
+      <c r="E59" s="230"/>
+      <c r="F59" s="230"/>
+      <c r="G59" s="230"/>
+      <c r="H59" s="230"/>
+      <c r="I59" s="230"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -30995,17 +30995,17 @@
       </c>
     </row>
     <row r="82" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="223" t="s">
+      <c r="A82" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="223"/>
-      <c r="C82" s="223"/>
-      <c r="D82" s="223"/>
-      <c r="E82" s="223"/>
-      <c r="F82" s="223"/>
-      <c r="G82" s="223"/>
-      <c r="H82" s="223"/>
-      <c r="I82" s="223"/>
+      <c r="B82" s="231"/>
+      <c r="C82" s="231"/>
+      <c r="D82" s="231"/>
+      <c r="E82" s="231"/>
+      <c r="F82" s="231"/>
+      <c r="G82" s="231"/>
+      <c r="H82" s="231"/>
+      <c r="I82" s="231"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -33012,17 +33012,17 @@
       </c>
     </row>
     <row r="95" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="224" t="s">
+      <c r="A95" s="232" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="224"/>
-      <c r="C95" s="224"/>
-      <c r="D95" s="224"/>
-      <c r="E95" s="224"/>
-      <c r="F95" s="224"/>
-      <c r="G95" s="225"/>
-      <c r="H95" s="224"/>
-      <c r="I95" s="224"/>
+      <c r="B95" s="232"/>
+      <c r="C95" s="232"/>
+      <c r="D95" s="232"/>
+      <c r="E95" s="232"/>
+      <c r="F95" s="232"/>
+      <c r="G95" s="233"/>
+      <c r="H95" s="232"/>
+      <c r="I95" s="232"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -34093,12 +34093,6 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -34106,6 +34100,12 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="31">
@@ -34262,16 +34262,16 @@
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="234"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="219"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -34483,16 +34483,16 @@
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="218"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="222"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -34664,16 +34664,16 @@
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="222"/>
       <c r="J4" s="22">
         <v>3</v>
       </c>
@@ -34845,16 +34845,16 @@
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="235"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="223"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -35026,16 +35026,16 @@
     </row>
     <row r="6" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="238"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="226"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -35207,16 +35207,16 @@
     </row>
     <row r="7" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="218"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -35706,17 +35706,17 @@
       <c r="BM9" s="55"/>
     </row>
     <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="226"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="226"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -38317,17 +38317,17 @@
       </c>
     </row>
     <row r="25" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="227" t="s">
+      <c r="A25" s="235" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="228"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="236"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -39854,7 +39854,7 @@
       </c>
     </row>
     <row r="35" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="229">
+      <c r="A35" s="237">
         <f t="shared" si="78"/>
         <v>10</v>
       </c>
@@ -40010,7 +40010,7 @@
       </c>
     </row>
     <row r="36" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="230"/>
+      <c r="A36" s="238"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -40163,7 +40163,7 @@
       </c>
     </row>
     <row r="37" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="231"/>
+      <c r="A37" s="239"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -40995,17 +40995,17 @@
       </c>
     </row>
     <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="219" t="s">
+      <c r="A42" s="227" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -43685,17 +43685,17 @@
       </c>
     </row>
     <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="221" t="s">
+      <c r="A59" s="229" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="222"/>
-      <c r="C59" s="222"/>
-      <c r="D59" s="222"/>
-      <c r="E59" s="222"/>
-      <c r="F59" s="222"/>
-      <c r="G59" s="222"/>
-      <c r="H59" s="222"/>
-      <c r="I59" s="222"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="230"/>
+      <c r="D59" s="230"/>
+      <c r="E59" s="230"/>
+      <c r="F59" s="230"/>
+      <c r="G59" s="230"/>
+      <c r="H59" s="230"/>
+      <c r="I59" s="230"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -47163,17 +47163,17 @@
       </c>
     </row>
     <row r="82" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="223" t="s">
+      <c r="A82" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="223"/>
-      <c r="C82" s="223"/>
-      <c r="D82" s="223"/>
-      <c r="E82" s="223"/>
-      <c r="F82" s="223"/>
-      <c r="G82" s="223"/>
-      <c r="H82" s="223"/>
-      <c r="I82" s="223"/>
+      <c r="B82" s="231"/>
+      <c r="C82" s="231"/>
+      <c r="D82" s="231"/>
+      <c r="E82" s="231"/>
+      <c r="F82" s="231"/>
+      <c r="G82" s="231"/>
+      <c r="H82" s="231"/>
+      <c r="I82" s="231"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -49180,17 +49180,17 @@
       </c>
     </row>
     <row r="95" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="224" t="s">
+      <c r="A95" s="232" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="224"/>
-      <c r="C95" s="224"/>
-      <c r="D95" s="224"/>
-      <c r="E95" s="224"/>
-      <c r="F95" s="224"/>
-      <c r="G95" s="225"/>
-      <c r="H95" s="224"/>
-      <c r="I95" s="224"/>
+      <c r="B95" s="232"/>
+      <c r="C95" s="232"/>
+      <c r="D95" s="232"/>
+      <c r="E95" s="232"/>
+      <c r="F95" s="232"/>
+      <c r="G95" s="233"/>
+      <c r="H95" s="232"/>
+      <c r="I95" s="232"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -50261,12 +50261,6 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -50274,6 +50268,12 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <dataValidations count="31">
     <dataValidation showInputMessage="1" showErrorMessage="1" error="Введите номер блока АКЧ от 1 до 5." sqref="J3:BM3" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
@@ -50426,16 +50426,16 @@
     </row>
     <row r="2" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="234"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="219"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -50615,16 +50615,16 @@
     </row>
     <row r="3" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="218"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="222"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -50772,16 +50772,16 @@
     </row>
     <row r="4" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="222"/>
       <c r="J4" s="22">
         <v>4</v>
       </c>
@@ -50929,16 +50929,16 @@
     </row>
     <row r="5" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="235"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="223"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -51086,16 +51086,16 @@
     </row>
     <row r="6" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="238"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="226"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -51243,16 +51243,16 @@
     </row>
     <row r="7" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="218"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -51678,17 +51678,17 @@
       <c r="BE9" s="55"/>
     </row>
     <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="226"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="226"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -54072,17 +54072,17 @@
       </c>
     </row>
     <row r="25" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="227" t="s">
+      <c r="A25" s="235" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="228"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="236"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -55502,7 +55502,7 @@
       </c>
     </row>
     <row r="35" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="229">
+      <c r="A35" s="237">
         <f t="shared" si="55"/>
         <v>10</v>
       </c>
@@ -55648,7 +55648,7 @@
       </c>
     </row>
     <row r="36" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="230"/>
+      <c r="A36" s="238"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -55791,7 +55791,7 @@
       </c>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="231"/>
+      <c r="A37" s="239"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -56569,17 +56569,17 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="219" t="s">
+      <c r="A42" s="227" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -59075,17 +59075,17 @@
       </c>
     </row>
     <row r="59" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="221" t="s">
+      <c r="A59" s="229" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="222"/>
-      <c r="C59" s="222"/>
-      <c r="D59" s="222"/>
-      <c r="E59" s="222"/>
-      <c r="F59" s="222"/>
-      <c r="G59" s="222"/>
-      <c r="H59" s="222"/>
-      <c r="I59" s="222"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="230"/>
+      <c r="D59" s="230"/>
+      <c r="E59" s="230"/>
+      <c r="F59" s="230"/>
+      <c r="G59" s="230"/>
+      <c r="H59" s="230"/>
+      <c r="I59" s="230"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -62264,17 +62264,17 @@
       </c>
     </row>
     <row r="82" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="223" t="s">
+      <c r="A82" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="223"/>
-      <c r="C82" s="223"/>
-      <c r="D82" s="223"/>
-      <c r="E82" s="223"/>
-      <c r="F82" s="223"/>
-      <c r="G82" s="223"/>
-      <c r="H82" s="223"/>
-      <c r="I82" s="223"/>
+      <c r="B82" s="231"/>
+      <c r="C82" s="231"/>
+      <c r="D82" s="231"/>
+      <c r="E82" s="231"/>
+      <c r="F82" s="231"/>
+      <c r="G82" s="231"/>
+      <c r="H82" s="231"/>
+      <c r="I82" s="231"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -64141,17 +64141,17 @@
       </c>
     </row>
     <row r="95" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="224" t="s">
+      <c r="A95" s="232" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="224"/>
-      <c r="C95" s="224"/>
-      <c r="D95" s="224"/>
-      <c r="E95" s="224"/>
-      <c r="F95" s="224"/>
-      <c r="G95" s="225"/>
-      <c r="H95" s="224"/>
-      <c r="I95" s="224"/>
+      <c r="B95" s="232"/>
+      <c r="C95" s="232"/>
+      <c r="D95" s="232"/>
+      <c r="E95" s="232"/>
+      <c r="F95" s="232"/>
+      <c r="G95" s="233"/>
+      <c r="H95" s="232"/>
+      <c r="I95" s="232"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -65143,12 +65143,6 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -65156,6 +65150,12 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="30">

--- a/Пример отчета.xlsx
+++ b/Пример отчета.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkUFO\Documents\GitHub\Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E350720-F52A-4843-8CEA-AE50EE70F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44929DAA-7167-4E74-B5C3-0535D8875B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="672" yWindow="600" windowWidth="17280" windowHeight="8964" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Формулы" sheetId="2" r:id="rId1"/>
@@ -2144,18 +2144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2165,22 +2153,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2234,6 +2206,34 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3150,11 +3150,11 @@
   <dimension ref="A1:BE102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="J94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B7" sqref="B7"/>
       <selection pane="topRight" activeCell="B7" sqref="B7"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3198,16 +3198,16 @@
     </row>
     <row r="2" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="219"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="235"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="3" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="222"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="219"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -3544,16 +3544,16 @@
     </row>
     <row r="4" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="219"/>
       <c r="J4" s="22">
         <v>1</v>
       </c>
@@ -3701,16 +3701,16 @@
     </row>
     <row r="5" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="223"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -3858,16 +3858,16 @@
     </row>
     <row r="6" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="226"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="239"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -4015,16 +4015,16 @@
     </row>
     <row r="7" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="222"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="219"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -4450,17 +4450,17 @@
       <c r="BE9" s="55"/>
     </row>
     <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="227"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -6831,17 +6831,17 @@
       </c>
     </row>
     <row r="25" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="236"/>
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -8261,7 +8261,7 @@
       </c>
     </row>
     <row r="35" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="237">
+      <c r="A35" s="230">
         <f t="shared" si="83"/>
         <v>10</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
     </row>
     <row r="36" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="238"/>
+      <c r="A36" s="231"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -8550,7 +8550,7 @@
       </c>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="239"/>
+      <c r="A37" s="232"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -9328,17 +9328,17 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="227" t="s">
+      <c r="A42" s="220" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="228"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -11834,17 +11834,17 @@
       </c>
     </row>
     <row r="59" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="229" t="s">
+      <c r="A59" s="222" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="230"/>
-      <c r="C59" s="230"/>
-      <c r="D59" s="230"/>
-      <c r="E59" s="230"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="230"/>
-      <c r="I59" s="230"/>
+      <c r="B59" s="223"/>
+      <c r="C59" s="223"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="223"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -15044,17 +15044,17 @@
       </c>
     </row>
     <row r="82" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="231" t="s">
+      <c r="A82" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="231"/>
-      <c r="C82" s="231"/>
-      <c r="D82" s="231"/>
-      <c r="E82" s="231"/>
-      <c r="F82" s="231"/>
-      <c r="G82" s="231"/>
-      <c r="H82" s="231"/>
-      <c r="I82" s="231"/>
+      <c r="B82" s="224"/>
+      <c r="C82" s="224"/>
+      <c r="D82" s="224"/>
+      <c r="E82" s="224"/>
+      <c r="F82" s="224"/>
+      <c r="G82" s="224"/>
+      <c r="H82" s="224"/>
+      <c r="I82" s="224"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -16921,17 +16921,17 @@
       </c>
     </row>
     <row r="95" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="232" t="s">
+      <c r="A95" s="225" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="232"/>
-      <c r="C95" s="232"/>
-      <c r="D95" s="232"/>
-      <c r="E95" s="232"/>
-      <c r="F95" s="232"/>
-      <c r="G95" s="233"/>
-      <c r="H95" s="232"/>
-      <c r="I95" s="232"/>
+      <c r="B95" s="225"/>
+      <c r="C95" s="225"/>
+      <c r="D95" s="225"/>
+      <c r="E95" s="225"/>
+      <c r="F95" s="225"/>
+      <c r="G95" s="226"/>
+      <c r="H95" s="225"/>
+      <c r="I95" s="225"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -17923,6 +17923,11 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
@@ -17931,11 +17936,6 @@
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="32">
@@ -18095,16 +18095,16 @@
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="219"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="235"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -18316,16 +18316,16 @@
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="222"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="219"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -18497,16 +18497,16 @@
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="219"/>
       <c r="J4" s="22">
         <v>2</v>
       </c>
@@ -18678,16 +18678,16 @@
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="223"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -18859,16 +18859,16 @@
     </row>
     <row r="6" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="226"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="239"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -19040,16 +19040,16 @@
     </row>
     <row r="7" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="222"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="219"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -19539,17 +19539,17 @@
       <c r="BM9" s="55"/>
     </row>
     <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="227"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -22150,17 +22150,17 @@
       </c>
     </row>
     <row r="25" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="236"/>
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -23687,7 +23687,7 @@
       </c>
     </row>
     <row r="35" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="237">
+      <c r="A35" s="230">
         <f t="shared" si="84"/>
         <v>10</v>
       </c>
@@ -23843,7 +23843,7 @@
       </c>
     </row>
     <row r="36" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="238"/>
+      <c r="A36" s="231"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -23996,7 +23996,7 @@
       </c>
     </row>
     <row r="37" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="239"/>
+      <c r="A37" s="232"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -24828,17 +24828,17 @@
       </c>
     </row>
     <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="227" t="s">
+      <c r="A42" s="220" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="228"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -27518,17 +27518,17 @@
       </c>
     </row>
     <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="229" t="s">
+      <c r="A59" s="222" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="230"/>
-      <c r="C59" s="230"/>
-      <c r="D59" s="230"/>
-      <c r="E59" s="230"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="230"/>
-      <c r="I59" s="230"/>
+      <c r="B59" s="223"/>
+      <c r="C59" s="223"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="223"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -30995,17 +30995,17 @@
       </c>
     </row>
     <row r="82" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="231" t="s">
+      <c r="A82" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="231"/>
-      <c r="C82" s="231"/>
-      <c r="D82" s="231"/>
-      <c r="E82" s="231"/>
-      <c r="F82" s="231"/>
-      <c r="G82" s="231"/>
-      <c r="H82" s="231"/>
-      <c r="I82" s="231"/>
+      <c r="B82" s="224"/>
+      <c r="C82" s="224"/>
+      <c r="D82" s="224"/>
+      <c r="E82" s="224"/>
+      <c r="F82" s="224"/>
+      <c r="G82" s="224"/>
+      <c r="H82" s="224"/>
+      <c r="I82" s="224"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -33012,17 +33012,17 @@
       </c>
     </row>
     <row r="95" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="232" t="s">
+      <c r="A95" s="225" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="232"/>
-      <c r="C95" s="232"/>
-      <c r="D95" s="232"/>
-      <c r="E95" s="232"/>
-      <c r="F95" s="232"/>
-      <c r="G95" s="233"/>
-      <c r="H95" s="232"/>
-      <c r="I95" s="232"/>
+      <c r="B95" s="225"/>
+      <c r="C95" s="225"/>
+      <c r="D95" s="225"/>
+      <c r="E95" s="225"/>
+      <c r="F95" s="225"/>
+      <c r="G95" s="226"/>
+      <c r="H95" s="225"/>
+      <c r="I95" s="225"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -34093,6 +34093,12 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -34100,12 +34106,6 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="31">
@@ -34262,16 +34262,16 @@
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="219"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="235"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -34483,16 +34483,16 @@
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="222"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="219"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -34664,16 +34664,16 @@
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="219"/>
       <c r="J4" s="22">
         <v>3</v>
       </c>
@@ -34845,16 +34845,16 @@
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="223"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -35026,16 +35026,16 @@
     </row>
     <row r="6" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="226"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="239"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -35207,16 +35207,16 @@
     </row>
     <row r="7" spans="1:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="222"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="219"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -35706,17 +35706,17 @@
       <c r="BM9" s="55"/>
     </row>
     <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="227"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -38317,17 +38317,17 @@
       </c>
     </row>
     <row r="25" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="236"/>
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -39854,7 +39854,7 @@
       </c>
     </row>
     <row r="35" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="237">
+      <c r="A35" s="230">
         <f t="shared" si="78"/>
         <v>10</v>
       </c>
@@ -40010,7 +40010,7 @@
       </c>
     </row>
     <row r="36" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="238"/>
+      <c r="A36" s="231"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -40163,7 +40163,7 @@
       </c>
     </row>
     <row r="37" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="239"/>
+      <c r="A37" s="232"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -40995,17 +40995,17 @@
       </c>
     </row>
     <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="227" t="s">
+      <c r="A42" s="220" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="228"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -43685,17 +43685,17 @@
       </c>
     </row>
     <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="229" t="s">
+      <c r="A59" s="222" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="230"/>
-      <c r="C59" s="230"/>
-      <c r="D59" s="230"/>
-      <c r="E59" s="230"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="230"/>
-      <c r="I59" s="230"/>
+      <c r="B59" s="223"/>
+      <c r="C59" s="223"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="223"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -47163,17 +47163,17 @@
       </c>
     </row>
     <row r="82" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="231" t="s">
+      <c r="A82" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="231"/>
-      <c r="C82" s="231"/>
-      <c r="D82" s="231"/>
-      <c r="E82" s="231"/>
-      <c r="F82" s="231"/>
-      <c r="G82" s="231"/>
-      <c r="H82" s="231"/>
-      <c r="I82" s="231"/>
+      <c r="B82" s="224"/>
+      <c r="C82" s="224"/>
+      <c r="D82" s="224"/>
+      <c r="E82" s="224"/>
+      <c r="F82" s="224"/>
+      <c r="G82" s="224"/>
+      <c r="H82" s="224"/>
+      <c r="I82" s="224"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -49180,17 +49180,17 @@
       </c>
     </row>
     <row r="95" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="232" t="s">
+      <c r="A95" s="225" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="232"/>
-      <c r="C95" s="232"/>
-      <c r="D95" s="232"/>
-      <c r="E95" s="232"/>
-      <c r="F95" s="232"/>
-      <c r="G95" s="233"/>
-      <c r="H95" s="232"/>
-      <c r="I95" s="232"/>
+      <c r="B95" s="225"/>
+      <c r="C95" s="225"/>
+      <c r="D95" s="225"/>
+      <c r="E95" s="225"/>
+      <c r="F95" s="225"/>
+      <c r="G95" s="226"/>
+      <c r="H95" s="225"/>
+      <c r="I95" s="225"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -50261,6 +50261,12 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -50268,12 +50274,6 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <dataValidations count="31">
     <dataValidation showInputMessage="1" showErrorMessage="1" error="Введите номер блока АКЧ от 1 до 5." sqref="J3:BM3" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
@@ -50426,16 +50426,16 @@
     </row>
     <row r="2" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="219"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="235"/>
       <c r="J2" s="51" t="s">
         <v>2</v>
       </c>
@@ -50615,16 +50615,16 @@
     </row>
     <row r="3" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="222"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="219"/>
       <c r="J3" s="22">
         <v>3</v>
       </c>
@@ -50772,16 +50772,16 @@
     </row>
     <row r="4" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="219"/>
       <c r="J4" s="22">
         <v>4</v>
       </c>
@@ -50929,16 +50929,16 @@
     </row>
     <row r="5" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="223"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="22" t="s">
         <v>274</v>
       </c>
@@ -51086,16 +51086,16 @@
     </row>
     <row r="6" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="226"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="239"/>
       <c r="J6" s="52" t="s">
         <v>299</v>
       </c>
@@ -51243,16 +51243,16 @@
     </row>
     <row r="7" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="222"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="219"/>
       <c r="J7" s="53">
         <v>44256</v>
       </c>
@@ -51678,17 +51678,17 @@
       <c r="BE9" s="55"/>
     </row>
     <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="227"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -54072,17 +54072,17 @@
       </c>
     </row>
     <row r="25" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="236"/>
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -55502,7 +55502,7 @@
       </c>
     </row>
     <row r="35" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="237">
+      <c r="A35" s="230">
         <f t="shared" si="55"/>
         <v>10</v>
       </c>
@@ -55648,7 +55648,7 @@
       </c>
     </row>
     <row r="36" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="238"/>
+      <c r="A36" s="231"/>
       <c r="B36" s="36" t="s">
         <v>92</v>
       </c>
@@ -55791,7 +55791,7 @@
       </c>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="239"/>
+      <c r="A37" s="232"/>
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
@@ -56569,17 +56569,17 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="227" t="s">
+      <c r="A42" s="220" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="228"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -59075,17 +59075,17 @@
       </c>
     </row>
     <row r="59" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="229" t="s">
+      <c r="A59" s="222" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="230"/>
-      <c r="C59" s="230"/>
-      <c r="D59" s="230"/>
-      <c r="E59" s="230"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="230"/>
-      <c r="I59" s="230"/>
+      <c r="B59" s="223"/>
+      <c r="C59" s="223"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="223"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
@@ -62264,17 +62264,17 @@
       </c>
     </row>
     <row r="82" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="231" t="s">
+      <c r="A82" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="231"/>
-      <c r="C82" s="231"/>
-      <c r="D82" s="231"/>
-      <c r="E82" s="231"/>
-      <c r="F82" s="231"/>
-      <c r="G82" s="231"/>
-      <c r="H82" s="231"/>
-      <c r="I82" s="231"/>
+      <c r="B82" s="224"/>
+      <c r="C82" s="224"/>
+      <c r="D82" s="224"/>
+      <c r="E82" s="224"/>
+      <c r="F82" s="224"/>
+      <c r="G82" s="224"/>
+      <c r="H82" s="224"/>
+      <c r="I82" s="224"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -64141,17 +64141,17 @@
       </c>
     </row>
     <row r="95" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="232" t="s">
+      <c r="A95" s="225" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="232"/>
-      <c r="C95" s="232"/>
-      <c r="D95" s="232"/>
-      <c r="E95" s="232"/>
-      <c r="F95" s="232"/>
-      <c r="G95" s="233"/>
-      <c r="H95" s="232"/>
-      <c r="I95" s="232"/>
+      <c r="B95" s="225"/>
+      <c r="C95" s="225"/>
+      <c r="D95" s="225"/>
+      <c r="E95" s="225"/>
+      <c r="F95" s="225"/>
+      <c r="G95" s="226"/>
+      <c r="H95" s="225"/>
+      <c r="I95" s="225"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -65143,6 +65143,12 @@
   </sheetData>
   <sheetProtection formatColumns="0" insertColumns="0" deleteColumns="0" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A95:I95"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
@@ -65150,12 +65156,6 @@
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A82:I82"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="30">
